--- a/Material + Ano/ResNet/Tentativa 2/Com Tentativa 2 - Material/Matriz de Confusão.xlsx
+++ b/Material + Ano/ResNet/Tentativa 2/Com Tentativa 2 - Material/Matriz de Confusão.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material + Ano\ResNet\Tentativa 2\Com Tentativa 2 - Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C8F806-7FDD-4740-984E-84BA3C8C301E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67677615-DA57-4309-A87A-CC76B7743A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,16 +53,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -122,19 +122,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,30 +453,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="1"/>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>4</v>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="7">
         <v>2</v>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <v>2</v>
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="6">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -609,10 +609,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8">
         <f>SUM(C3:C7)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
@@ -624,11 +624,11 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H8">
         <f>SUM(H3:H7)</f>
